--- a/biology/Zoologie/Aulacidea_arnicae/Aulacidea_arnicae.xlsx
+++ b/biology/Zoologie/Aulacidea_arnicae/Aulacidea_arnicae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aulacidea arnicae est un insecte hyménoptère galligène de la famille des Cynipidae.
-Il est responsable de galles à l'intérieur des capitules d'Arnica montana. Plus précisément, il s'agit d'une larve solitaire se développant et nymphosant à l'intérieur d'achènes lignifiés[2]. 
-Bien que sa plante hôte soit présente dans de nombreux pays européens, Aulacidea arnicae est répertoriée uniquement au Danemark[3].
-L'auteur de cette espèce est Erik Brock Hoffmeyer (1893-1970), apothicaire danois et descripteur de quelques espèces de la même famille[4].
+Il est responsable de galles à l'intérieur des capitules d'Arnica montana. Plus précisément, il s'agit d'une larve solitaire se développant et nymphosant à l'intérieur d'achènes lignifiés. 
+Bien que sa plante hôte soit présente dans de nombreux pays européens, Aulacidea arnicae est répertoriée uniquement au Danemark.
+L'auteur de cette espèce est Erik Brock Hoffmeyer (1893-1970), apothicaire danois et descripteur de quelques espèces de la même famille.
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (de) Hoffmeyer, « Eine neue danische Cynipidae aus Arnica, nebst Bemerkungen über das Phanacis-Mannchen. » Entomologiske Meddelelser, 1930, Volume 16, numéro 8, pages 417-418.
-↑ (en) W.N. Ellis,, « Aulacidea arnicae – Plant Parasites of Europe », sur bladmineerders.nl (Amsterdam, The Netherlands), 28 juin 2017 (consulté le 8 octobre 2019).
+↑ (en) W.N. Ellis « Aulacidea arnicae – Plant Parasites of Europe », sur bladmineerders.nl (Amsterdam, The Netherlands), 28 juin 2017 (consulté le 8 octobre 2019).
 ↑ Fauna Europaea, consulté le  10 octobre 2019
 ↑ (da) Hans-Ole Mørk &amp; Svend Jacobsen., « Erik Brock Hoffmeyer », sur Herredsfoged Troels Winther og hans efterslægt - og andre sønderjyske slægter, 2001-2019. (consulté le 9 octobre 2019)
 </t>
